--- a/scripts/generateScores/Asignaturas.xlsx
+++ b/scripts/generateScores/Asignaturas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD6CFB-7178-41A7-BAFF-1DF77FFCD828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F64F61-902B-423B-A271-EA36B119B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Profile (Asignaturas)" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Economía de Empresa</t>
   </si>
   <si>
-    <t>Tecnología en Electronica</t>
-  </si>
-  <si>
     <t>Legislación  Comercial  I</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Construcción, Administración de Empresas, Contaduría</t>
+  </si>
+  <si>
+    <t>Tecnología en Electrónica</t>
   </si>
 </sst>
 </file>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,40 +879,40 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -923,18 +923,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -945,84 +945,84 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -1055,249 +1055,249 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4">
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="4">
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4">
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4">
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -1308,18 +1308,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
@@ -1330,40 +1330,40 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4">
         <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="4">
         <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4">
         <v>10</v>
@@ -1374,29 +1374,29 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="4">
         <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="4">
         <v>7</v>
@@ -1405,20 +1405,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="4">
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -1427,37 +1427,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="4">
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,12 +1666,12 @@
         <v>9</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1721,12 +1721,12 @@
         <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="4">
         <v>5</v>
@@ -1737,156 +1737,156 @@
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="4">
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="4">
         <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="4">
         <v>6</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="4">
         <v>5</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="4">
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B88" s="4">
         <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B89" s="4">
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B90" s="4">
         <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4">
         <v>6</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/generateScores/Asignaturas.xlsx
+++ b/scripts/generateScores/Asignaturas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F64F61-902B-423B-A271-EA36B119B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9EC77A-B3C4-4DE6-94F6-DC2DA8CC6482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t xml:space="preserve">Herramientas informáticas para la gestión </t>
   </si>
   <si>
-    <t>Ingeniería de Sistemas, Ingeniería de Alimentos,Construcción</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construcción de Edificaciones </t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>Contaduría, Administración de Empresas, Trabajo social, Ingeniería de Sistemas, Construcción</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingeniería de Sistemas, Tecnología en Desarrollo de Software,Contaduría, Administración de Empresas, Construcción,Nutricion y Dietetica, Ingeniería de Alimentos	</t>
-  </si>
-  <si>
     <t>Ingeniería de Sistemas, Trabajo social, Contaduría, Administración de Empresas, Ingeniería de Alimentos</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>Tecnología en Electrónica</t>
+  </si>
+  <si>
+    <t>Ingeniería de Sistemas, Ingeniería de Alimentos, Construcción</t>
+  </si>
+  <si>
+    <t>Ingeniería de Sistemas, Tecnología en Desarrollo de Software, Contaduría, Administración de Empresas, Construcción, Nutricion y Dietetica, Ingeniería de Alimentos</t>
   </si>
 </sst>
 </file>
@@ -865,13 +865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="1" customWidth="1"/>
+    <col min="1" max="1" width="121.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
@@ -879,18 +879,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>8</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4">
         <v>8</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4">
         <v>9</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
@@ -1119,9 +1119,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
@@ -1130,9 +1130,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1141,9 +1141,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1154,29 +1154,29 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
@@ -1187,29 +1187,29 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4">
         <v>8</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4">
         <v>4</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4">
         <v>7</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4">
         <v>8</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4">
         <v>7</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="4">
         <v>7</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="4">
         <v>10</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="4">
         <v>6</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4">
         <v>7</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4">
         <v>2</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
@@ -1438,9 +1438,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -1449,9 +1449,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="4">
         <v>4</v>
@@ -1669,9 +1669,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B73" s="4">
         <v>4</v>
@@ -1724,7 +1724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>70</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>70</v>
       </c>
@@ -1746,9 +1746,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="4">
         <v>2</v>
@@ -1757,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>68</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>68</v>
       </c>
@@ -1779,9 +1779,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>68</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>68</v>
       </c>
@@ -1812,9 +1812,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -1823,9 +1823,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B88" s="4">
         <v>6</v>
@@ -1847,18 +1847,18 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4">
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90" s="4">
         <v>6</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B91" s="4">
         <v>6</v>
@@ -1878,15 +1878,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
